--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A706FA48-635E-46F6-81E6-7615B332E7F7}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB637666-8626-432F-82E1-4A1419BDFA75}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>December</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Writing</t>
+  </si>
+  <si>
+    <t>Note: For the time being, I don’t know what writing will entail as I haven't yet finished the planning steps</t>
   </si>
 </sst>
 </file>
@@ -164,20 +167,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -195,6 +197,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,7 +469,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,8 +521,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -524,29 +530,28 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
